--- a/DOCUMENTATION/Plan de test qualité en gestion de projet - Clickn'Eat.xlsx
+++ b/DOCUMENTATION/Plan de test qualité en gestion de projet - Clickn'Eat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bts_sio\clickneat\DOCUMENTATION\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C31A9B0-4CAE-407C-9A20-FBA3B76DB8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="41415" yWindow="-12255" windowWidth="25890" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,249 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description Test</t>
+  </si>
+  <si>
+    <t>Résultats attendus</t>
+  </si>
+  <si>
+    <t>Résultats actuels</t>
+  </si>
+  <si>
+    <t>Réussi / Échoué</t>
+  </si>
+  <si>
+    <t>Testé par :</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <t>Connexion au site</t>
+  </si>
+  <si>
+    <t>Arriver sur la page d'accueil</t>
+  </si>
+  <si>
+    <t>Utilisateur dirigé vers accueil</t>
+  </si>
+  <si>
+    <t>Réussi</t>
+  </si>
+  <si>
+    <t>Justin GESTIERE</t>
+  </si>
+  <si>
+    <t>Aucun problème</t>
+  </si>
+  <si>
+    <t>Échoué</t>
+  </si>
+  <si>
+    <t>Création d’un compte (tous rôles)</t>
+  </si>
+  <si>
+    <t>Connexion avec identifiants valides et invalides</t>
+  </si>
+  <si>
+    <t>Déconnexion</t>
+  </si>
+  <si>
+    <t>Accès refusé aux pages protégées sans connexion</t>
+  </si>
+  <si>
+    <t>Modification du mot de passe/profil</t>
+  </si>
+  <si>
+    <t>Création d’un restaurant</t>
+  </si>
+  <si>
+    <t>Modification d’un restaurant</t>
+  </si>
+  <si>
+    <t>Suppression d’un restaurant</t>
+  </si>
+  <si>
+    <t>Affichage de la liste des restaurants</t>
+  </si>
+  <si>
+    <t>Ajout/modification/suppression d’une table</t>
+  </si>
+  <si>
+    <t>Association d’une table à un restaurant</t>
+  </si>
+  <si>
+    <t>Ajout/modification/suppression de catégories</t>
+  </si>
+  <si>
+    <t>Ajout/modification/suppression d’items (plats)</t>
+  </si>
+  <si>
+    <t>Création d’une commande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification d’une commande </t>
+  </si>
+  <si>
+    <t>Annulation d’une commande</t>
+  </si>
+  <si>
+    <t>Vérification du calcul du total</t>
+  </si>
+  <si>
+    <t>Navigation entre les différentes pages
+signatures</t>
+  </si>
+  <si>
+    <t>Affichage des messages d’erreur appropriés</t>
+  </si>
+  <si>
+    <t>Protection contre les actions non autorisées</t>
+  </si>
+  <si>
+    <t>Compte créer peut imorte le role</t>
+  </si>
+  <si>
+    <t>Utilisateur créé avec succès</t>
+  </si>
+  <si>
+    <t>Connecter ou non en fonction de l'identifiant</t>
+  </si>
+  <si>
+    <t>Connexion fonctionne si l'identifiant est valide</t>
+  </si>
+  <si>
+    <t>Utilisateur doit être deconnecter</t>
+  </si>
+  <si>
+    <t>Utilisateur est déconnecté</t>
+  </si>
+  <si>
+    <t>Renvoyer vers la mauvaise page</t>
+  </si>
+  <si>
+    <t>Les pages autres que restaurant ne doivent pas être affiché</t>
+  </si>
+  <si>
+    <t>Toutes les pages sont visible</t>
+  </si>
+  <si>
+    <t>Problème dans les routes</t>
+  </si>
+  <si>
+    <t>Le mot de passe se modifie</t>
+  </si>
+  <si>
+    <t>Le mot de passe est bien modifé</t>
+  </si>
+  <si>
+    <t>Un nouveau restaurant doit être présent</t>
+  </si>
+  <si>
+    <t>Nouveau restaurant créé</t>
+  </si>
+  <si>
+    <t>Le nom du restaurantdoit être modifié</t>
+  </si>
+  <si>
+    <t>Le nom du restaurant est modifé</t>
+  </si>
+  <si>
+    <t>Erreur dans la requete SQL</t>
+  </si>
+  <si>
+    <t>Le restaurant doit être supprimé</t>
+  </si>
+  <si>
+    <t>Le restaurant est supprimé</t>
+  </si>
+  <si>
+    <t>La liste des restaurants doit être affiché que pour les clients et admins</t>
+  </si>
+  <si>
+    <t>Tous les utilisateurs voient les restaurants</t>
+  </si>
+  <si>
+    <t>Problème de droits et sql</t>
+  </si>
+  <si>
+    <t>Le CRUD d'une table fonctionne</t>
+  </si>
+  <si>
+    <t>Problème avec la modification</t>
+  </si>
+  <si>
+    <t>Une table pour un restaurant</t>
+  </si>
+  <si>
+    <t>Une table est disponible meme apres avoir été réservé</t>
+  </si>
+  <si>
+    <t>Le CRUD pour une categorie fonctionne</t>
+  </si>
+  <si>
+    <t>Tout fonctionne</t>
+  </si>
+  <si>
+    <t>Le CRUD pour les items fonctionnent</t>
+  </si>
+  <si>
+    <t>On peut créer une commande avec différentes options</t>
+  </si>
+  <si>
+    <t>Problème avec la reservation sur place et le choix de la table</t>
+  </si>
+  <si>
+    <t>Les différentes options peuvent être modifié</t>
+  </si>
+  <si>
+    <t>Les modifiactions fonctionnent</t>
+  </si>
+  <si>
+    <t>La commande est annulée</t>
+  </si>
+  <si>
+    <t>La commande doit être annulée</t>
+  </si>
+  <si>
+    <t>Problème d'actualisation pour voir que la commande est annulée</t>
+  </si>
+  <si>
+    <t>Le calcul est correct</t>
+  </si>
+  <si>
+    <t>La navigation entre les pages fonctionnent</t>
+  </si>
+  <si>
+    <t>L'une des pages ne retourne pas au bon endroit</t>
+  </si>
+  <si>
+    <t>Problème de chemin</t>
+  </si>
+  <si>
+    <t>Lors d'une erreur un message est affiché</t>
+  </si>
+  <si>
+    <t>Un message estaffcihé lors d'une erreur</t>
+  </si>
+  <si>
+    <t>Les clients n'ont pas acces a la modifiaction des restaurants</t>
+  </si>
+  <si>
+    <t>Les clietns ne peuvent rien modifier en ce qui concerne les restaurants</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +274,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,12 +323,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +785,563 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" customWidth="1"/>
+    <col min="4" max="4" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45767</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>45767</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>45767</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>45767</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>45767</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>45767</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>45771</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>45771</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>45771</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>45771</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>45771</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>45771</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>45771</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>45771</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>45771</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>45772</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>45772</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>45772</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>45772</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>45772</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>45772</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>